--- a/Shared Documentation/Luke's Documents/For Charlie/Clash of Cosplayers - Plan Outline (for Chaz).xlsx
+++ b/Shared Documentation/Luke's Documents/For Charlie/Clash of Cosplayers - Plan Outline (for Chaz).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\For Charlie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_Clash-of-Cosplayers\Shared Documentation\Luke's Documents\For Charlie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9152BCA4-ED1B-4E90-A44E-7C5AAE7E40BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB97A32F-2FC8-430F-9D2B-AC95CB48D9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E57F7292-3F36-47CF-B64B-390F0A8E2C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>Category/name</t>
   </si>
@@ -189,6 +189,30 @@
   </si>
   <si>
     <t>could use variety &amp; polish (not necessary though) needs better detection range</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>Picking up Corpses</t>
+  </si>
+  <si>
+    <t>equipement</t>
+  </si>
+  <si>
+    <t>would use equipment controls to pick things up</t>
+  </si>
+  <si>
+    <t>Corpse Pick-up</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>Trashcan death</t>
+  </si>
+  <si>
+    <t>make the AI try to pick up the player's ragdolled body then put it in the trashcan which will then be made the only way to kill the player</t>
   </si>
 </sst>
 </file>
@@ -335,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -367,6 +391,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD4154-D683-48E3-B727-AD028CFBFA14}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +726,7 @@
     <col min="2" max="2" width="10.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="4"/>
     <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -981,44 +1006,74 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F22" s="17" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>38</v>
       </c>
     </row>
